--- a/Handbook/PARAMETERS.xlsx
+++ b/Handbook/PARAMETERS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/Handbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B8F7DD-FE16-324B-85DC-B01F80607212}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BDBF6B-2568-9E45-A7EE-7440EDF813A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="72">
   <si>
     <t>Number</t>
   </si>
@@ -108,9 +108,6 @@
     <t>OCR</t>
   </si>
   <si>
-    <t>K0</t>
-  </si>
-  <si>
     <t>WATER BULK MODULUS (MIXTURE Q)</t>
   </si>
   <si>
@@ -238,13 +235,19 @@
   </si>
   <si>
     <t>P0 - INITIAL_PRESSURE</t>
+  </si>
+  <si>
+    <t>WATER_DENSITY</t>
+  </si>
+  <si>
+    <t>GAMMA_VOL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,13 +263,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -290,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +321,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,10 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F23C1-07C1-3B4D-B011-398BF3B62F04}">
-  <dimension ref="B2:J42"/>
+  <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -646,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -661,13 +690,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -681,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -698,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -715,22 +744,22 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -738,28 +767,28 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -767,16 +796,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -785,16 +814,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -809,16 +838,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -826,13 +855,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -841,13 +870,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -862,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -871,25 +900,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -897,20 +926,20 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -918,17 +947,17 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,17 +965,17 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="5"/>
       <c r="J16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -960,22 +989,22 @@
         <v>20</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -989,22 +1018,22 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1012,22 +1041,22 @@
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1035,28 +1064,28 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1064,22 +1093,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1093,10 +1122,10 @@
         <v>23</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,22 +1133,22 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1127,22 +1156,22 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1150,22 +1179,22 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1179,16 +1208,16 @@
         <v>26</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1196,74 +1225,64 @@
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1271,28 +1290,28 @@
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1300,28 +1319,28 @@
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1329,13 +1348,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1343,13 +1362,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="H33" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1357,16 +1376,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="I34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1374,16 +1393,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,16 +1410,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1408,16 +1427,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1425,16 +1444,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1442,16 +1461,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,16 +1478,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,16 +1495,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1493,16 +1512,62 @@
         <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="5">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Handbook/PARAMETERS.xlsx
+++ b/Handbook/PARAMETERS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/Handbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BDBF6B-2568-9E45-A7EE-7440EDF813A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E09B9D-445C-664E-8520-45A5681A749C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="74">
   <si>
     <t>Number</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>GAMMA_VOL</t>
+  </si>
+  <si>
+    <t>INITIAL_DEVIATORIC_STRAIN</t>
+  </si>
+  <si>
+    <t>INITIAL DEVIATORIC STRAIN (Es0)</t>
   </si>
 </sst>
 </file>
@@ -271,18 +277,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,12 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +646,8 @@
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1247,14 +1241,24 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5">

--- a/Handbook/PARAMETERS.xlsx
+++ b/Handbook/PARAMETERS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/Handbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E09B9D-445C-664E-8520-45A5681A749C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328C02A-36BF-0849-A79D-5C4D1BF246CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
   <si>
     <t>Number</t>
   </si>
@@ -247,6 +247,54 @@
   </si>
   <si>
     <t>INITIAL DEVIATORIC STRAIN (Es0)</t>
+  </si>
+  <si>
+    <t>Eigenerosion</t>
+  </si>
+  <si>
+    <t>Eigensoftening</t>
+  </si>
+  <si>
+    <t>C EPSILON</t>
+  </si>
+  <si>
+    <t>CEPS</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Wc</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>Ft</t>
+  </si>
+  <si>
+    <t>WC_P</t>
+  </si>
+  <si>
+    <t>WC middle point</t>
+  </si>
+  <si>
+    <t>FT_P</t>
+  </si>
+  <si>
+    <t>FT middle point</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>Gc</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Aggregates Size</t>
   </si>
 </sst>
 </file>
@@ -643,11 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F23C1-07C1-3B4D-B011-398BF3B62F04}">
-  <dimension ref="B2:J44"/>
+  <dimension ref="B2:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28:J28"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -661,10 +709,12 @@
     <col min="7" max="7" width="10.83203125" style="5"/>
     <col min="8" max="8" width="10.83203125" style="4"/>
     <col min="9" max="10" width="10.83203125" style="5"/>
-    <col min="11" max="16384" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +742,14 @@
       <c r="J2" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -710,7 +766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -727,7 +783,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -756,7 +812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -785,7 +841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -803,7 +859,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -821,7 +877,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -844,7 +900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -859,7 +915,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -874,7 +930,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -889,7 +945,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -915,7 +971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>12</v>
       </c>
@@ -936,7 +992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>13</v>
       </c>
@@ -954,7 +1010,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>14</v>
       </c>
@@ -1361,7 +1417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>31</v>
       </c>
@@ -1375,7 +1431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5">
         <v>32</v>
       </c>
@@ -1392,7 +1448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
         <v>33</v>
       </c>
@@ -1409,7 +1465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
         <v>34</v>
       </c>
@@ -1426,7 +1482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
         <v>35</v>
       </c>
@@ -1443,7 +1499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5">
         <v>36</v>
       </c>
@@ -1460,7 +1516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5">
         <v>37</v>
       </c>
@@ -1477,7 +1533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5">
         <v>38</v>
       </c>
@@ -1494,7 +1550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5">
         <v>39</v>
       </c>
@@ -1511,7 +1567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="5">
         <v>40</v>
       </c>
@@ -1528,7 +1584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5">
         <v>41</v>
       </c>
@@ -1545,7 +1601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="6">
         <v>42</v>
       </c>
@@ -1571,6 +1627,113 @@
         <v>47</v>
       </c>
       <c r="J44" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5">
+        <v>43</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="6">
+        <v>44</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5">
+        <v>45</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="6">
+        <v>46</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="6">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="5">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Handbook/PARAMETERS.xlsx
+++ b/Handbook/PARAMETERS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/Handbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BDBF6B-2568-9E45-A7EE-7440EDF813A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328C02A-36BF-0849-A79D-5C4D1BF246CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
   <si>
     <t>Number</t>
   </si>
@@ -241,6 +241,60 @@
   </si>
   <si>
     <t>GAMMA_VOL</t>
+  </si>
+  <si>
+    <t>INITIAL_DEVIATORIC_STRAIN</t>
+  </si>
+  <si>
+    <t>INITIAL DEVIATORIC STRAIN (Es0)</t>
+  </si>
+  <si>
+    <t>Eigenerosion</t>
+  </si>
+  <si>
+    <t>Eigensoftening</t>
+  </si>
+  <si>
+    <t>C EPSILON</t>
+  </si>
+  <si>
+    <t>CEPS</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Wc</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>Ft</t>
+  </si>
+  <si>
+    <t>WC_P</t>
+  </si>
+  <si>
+    <t>WC middle point</t>
+  </si>
+  <si>
+    <t>FT_P</t>
+  </si>
+  <si>
+    <t>FT middle point</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>Gc</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Aggregates Size</t>
   </si>
 </sst>
 </file>
@@ -271,18 +325,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -306,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,12 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,11 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F23C1-07C1-3B4D-B011-398BF3B62F04}">
-  <dimension ref="B2:J44"/>
+  <dimension ref="B2:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -667,10 +709,12 @@
     <col min="7" max="7" width="10.83203125" style="5"/>
     <col min="8" max="8" width="10.83203125" style="4"/>
     <col min="9" max="10" width="10.83203125" style="5"/>
-    <col min="11" max="16384" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,8 +742,14 @@
       <c r="J2" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -716,7 +766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -733,7 +783,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -762,7 +812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -791,7 +841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -809,7 +859,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -827,7 +877,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -850,7 +900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -865,7 +915,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -880,7 +930,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -895,7 +945,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -921,7 +971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>12</v>
       </c>
@@ -942,7 +992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>13</v>
       </c>
@@ -960,7 +1010,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>14</v>
       </c>
@@ -1247,14 +1297,24 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
@@ -1357,7 +1417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>31</v>
       </c>
@@ -1371,7 +1431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5">
         <v>32</v>
       </c>
@@ -1388,7 +1448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
         <v>33</v>
       </c>
@@ -1405,7 +1465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
         <v>34</v>
       </c>
@@ -1422,7 +1482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
         <v>35</v>
       </c>
@@ -1439,7 +1499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5">
         <v>36</v>
       </c>
@@ -1456,7 +1516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5">
         <v>37</v>
       </c>
@@ -1473,7 +1533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5">
         <v>38</v>
       </c>
@@ -1490,7 +1550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5">
         <v>39</v>
       </c>
@@ -1507,7 +1567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="5">
         <v>40</v>
       </c>
@@ -1524,7 +1584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5">
         <v>41</v>
       </c>
@@ -1541,7 +1601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="6">
         <v>42</v>
       </c>
@@ -1567,6 +1627,113 @@
         <v>47</v>
       </c>
       <c r="J44" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5">
+        <v>43</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="6">
+        <v>44</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5">
+        <v>45</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="6">
+        <v>46</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="6">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="5">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Handbook/PARAMETERS.xlsx
+++ b/Handbook/PARAMETERS.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/Handbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328C02A-36BF-0849-A79D-5C4D1BF246CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF0F2FE-2825-4542-96AB-CF30D72B996E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$L$51</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="91">
   <si>
     <t>Number</t>
   </si>
@@ -295,6 +298,9 @@
   </si>
   <si>
     <t>Aggregates Size</t>
+  </si>
+  <si>
+    <t>ALPHA_PARAMETER</t>
   </si>
 </sst>
 </file>
@@ -691,11 +697,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F23C1-07C1-3B4D-B011-398BF3B62F04}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1174,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>23</v>
@@ -1739,6 +1747,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Handbook/PARAMETERS.xlsx
+++ b/Handbook/PARAMETERS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/Handbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091B7E9E-4595-A84D-86B6-977263BDD060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A432110-B180-0646-A199-52A4B23AAE5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
   </bookViews>
@@ -18,17 +18,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$L$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="114">
   <si>
     <t>Number</t>
   </si>
@@ -301,6 +309,75 @@
   </si>
   <si>
     <t>KAPPA* (kappa/1+e0)</t>
+  </si>
+  <si>
+    <t>Unsaturated</t>
+  </si>
+  <si>
+    <t>LAMBDA1</t>
+  </si>
+  <si>
+    <t>BETA_RW</t>
+  </si>
+  <si>
+    <t>ALPHA_RW</t>
+  </si>
+  <si>
+    <t>XRW</t>
+  </si>
+  <si>
+    <t>BETAW</t>
+  </si>
+  <si>
+    <t>LAMBDA1 RW</t>
+  </si>
+  <si>
+    <t>XRW SW</t>
+  </si>
+  <si>
+    <t>BETAW SW</t>
+  </si>
+  <si>
+    <t>YR - SWR</t>
+  </si>
+  <si>
+    <t>YR SW - SWR (VG)</t>
+  </si>
+  <si>
+    <t>LAMBDAD - ALPHA_VG</t>
+  </si>
+  <si>
+    <t>LAMBDAD SW - ALPHA (VG)</t>
+  </si>
+  <si>
+    <t>XRD  - P0_VG</t>
+  </si>
+  <si>
+    <t>XRD SW  - P0 (VG)</t>
+  </si>
+  <si>
+    <t>RETENTION_CURVE</t>
+  </si>
+  <si>
+    <t>RETENTION CURVE EMPLOYED (PEDROSO - VG)</t>
+  </si>
+  <si>
+    <t>BETA1_SW - N_VG</t>
+  </si>
+  <si>
+    <t>BETA1_SW -  N (VG)</t>
+  </si>
+  <si>
+    <t>BETAD - M_VG</t>
+  </si>
+  <si>
+    <t>BETAD SW - M (VG)</t>
+  </si>
+  <si>
+    <t>LAMBDA0 - XI_VG</t>
+  </si>
+  <si>
+    <t>LAMBDA0 RW - XI (VG)</t>
   </si>
 </sst>
 </file>
@@ -703,10 +780,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:L51"/>
+  <dimension ref="B2:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -725,7 +803,7 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -759,8 +837,11 @@
       <c r="L2" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -777,7 +858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -794,7 +875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -823,7 +904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -852,7 +933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -870,7 +951,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -888,7 +969,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -911,7 +992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -926,7 +1007,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -941,7 +1022,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -956,7 +1037,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -982,7 +1063,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1003,7 +1084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1021,7 +1102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1703,7 +1784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>47</v>
       </c>
@@ -1718,7 +1799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
         <v>48</v>
       </c>
@@ -1733,7 +1814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -1746,6 +1827,171 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Handbook/PARAMETERS.xlsx
+++ b/Handbook/PARAMETERS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/Handbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A432110-B180-0646-A199-52A4B23AAE5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773D010-1CC2-AF49-A71D-597FF03AFE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$L$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$N$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="130">
   <si>
     <t>Number</t>
   </si>
@@ -197,9 +197,6 @@
     <t>SHEAR_MODULUS - GHAR</t>
   </si>
   <si>
-    <t>PZ</t>
-  </si>
-  <si>
     <t>ALPHA_F</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>BETA0</t>
   </si>
   <si>
-    <t>BETA1</t>
-  </si>
-  <si>
     <t>H0</t>
   </si>
   <si>
@@ -378,6 +372,60 @@
   </si>
   <si>
     <t>LAMBDA0 RW - XI (VG)</t>
+  </si>
+  <si>
+    <t>TAU95</t>
+  </si>
+  <si>
+    <t>DELTA95</t>
+  </si>
+  <si>
+    <t>XI95</t>
+  </si>
+  <si>
+    <t>BETA1 / BETA3</t>
+  </si>
+  <si>
+    <t>BETA1 or BETA3</t>
+  </si>
+  <si>
+    <t>H0 or H0'</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>HV0</t>
+  </si>
+  <si>
+    <t>BETA_V</t>
+  </si>
+  <si>
+    <t>PATM</t>
+  </si>
+  <si>
+    <t>RDEN</t>
+  </si>
+  <si>
+    <t>KDEN</t>
+  </si>
+  <si>
+    <t>Eigendegrad.</t>
+  </si>
+  <si>
+    <t>PZ-PZ state</t>
   </si>
 </sst>
 </file>
@@ -780,30 +828,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M63"/>
+  <dimension ref="B2:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="3" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="10" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
     <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -826,22 +876,25 @@
         <v>46</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -857,8 +910,11 @@
       <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -874,8 +930,11 @@
       <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -903,8 +962,11 @@
       <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -932,8 +994,11 @@
       <c r="J6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -950,8 +1015,11 @@
         <v>45</v>
       </c>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -968,8 +1036,11 @@
         <v>45</v>
       </c>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -991,8 +1062,11 @@
       <c r="J9" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1006,8 +1080,11 @@
         <v>45</v>
       </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1021,8 +1098,11 @@
         <v>45</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1036,8 +1116,11 @@
         <v>45</v>
       </c>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1062,8 +1145,11 @@
       <c r="J13" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1083,13 +1169,16 @@
       <c r="J14" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -1101,13 +1190,16 @@
       <c r="J15" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
@@ -1119,8 +1211,11 @@
       <c r="J16" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1148,8 +1243,11 @@
       <c r="J17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1177,8 +1275,11 @@
       <c r="J18" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1200,8 +1301,11 @@
       <c r="H19" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1229,8 +1333,11 @@
       <c r="J20" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1252,13 +1359,14 @@
       <c r="J21" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
@@ -1269,8 +1377,9 @@
       <c r="H22" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -1278,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>45</v>
@@ -1292,8 +1401,9 @@
       <c r="J23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -1301,7 +1411,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>45</v>
@@ -1315,8 +1425,9 @@
       <c r="J24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -1338,8 +1449,9 @@
       <c r="J25" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -1361,13 +1473,14 @@
       <c r="J26" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>28</v>
@@ -1384,16 +1497,17 @@
       <c r="J27" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>45</v>
@@ -1407,8 +1521,9 @@
       <c r="J28" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -1436,8 +1551,11 @@
       <c r="J29" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -1465,8 +1583,11 @@
       <c r="J30" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -1494,8 +1615,11 @@
       <c r="J31" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N31" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -1508,22 +1632,24 @@
       <c r="H32" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -1539,16 +1665,17 @@
       <c r="J34" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>45</v>
@@ -1556,16 +1683,17 @@
       <c r="J35" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>45</v>
@@ -1573,16 +1701,17 @@
       <c r="J36" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>45</v>
@@ -1590,16 +1719,17 @@
       <c r="J37" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>45</v>
@@ -1607,16 +1737,17 @@
       <c r="J38" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>45</v>
@@ -1624,16 +1755,17 @@
       <c r="J39" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>45</v>
@@ -1641,16 +1773,17 @@
       <c r="J40" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>45</v>
@@ -1658,16 +1791,17 @@
       <c r="J41" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>45</v>
@@ -1675,16 +1809,17 @@
       <c r="J42" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>45</v>
@@ -1692,16 +1827,17 @@
       <c r="J43" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>45</v>
@@ -1721,16 +1857,19 @@
       <c r="J44" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>45</v>
@@ -1738,264 +1877,449 @@
       <c r="L45" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>62</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>